--- a/SD Kelas 6A - Bahasa Inggris grades - 04-21-2021, 02-40 PM.xlsx
+++ b/SD Kelas 6A - Bahasa Inggris grades - 04-21-2021, 02-40 PM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\+Work_Project\studentreport-devop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\studentreport-devop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CC1D82-81C9-4AA2-AD87-56EE6A01B61C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Bahasa Inggris-TS_1-19-20" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Matematika-TS_1-20-21" sheetId="7" r:id="rId7"/>
     <sheet name="Matematika-S_1-20-21" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -86,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -920,11 +919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +939,7 @@
     <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -969,7 +968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -991,8 +990,12 @@
       <c r="H2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>(D2+G2)/2</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1014,8 +1017,12 @@
       <c r="H3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K5" si="0">(D3+G3)/2</f>
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1037,8 +1044,12 @@
       <c r="H4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1059,6 +1070,10 @@
       </c>
       <c r="H5">
         <v>100</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1067,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF6517C-A2B2-402F-A624-D4D9B43C53F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1214,7 +1229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9EB717-9F07-4937-8481-213B157C14C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1361,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9815EB6C-88E1-40BB-BD24-B8D29063AA60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1508,7 +1523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C87703-2B18-49C5-9D2D-B5806850A216}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1655,11 +1670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CCFC1C-4A41-4B83-9315-A903969C8779}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,11 +1817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF7FB0B-18F2-420A-A2AC-61C6F7ECDD67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,10 +1964,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62202AD9-6DC7-463A-A669-871DF2C33690}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>

--- a/SD Kelas 6A - Bahasa Inggris grades - 04-21-2021, 02-40 PM.xlsx
+++ b/SD Kelas 6A - Bahasa Inggris grades - 04-21-2021, 02-40 PM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\studentreport-devop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\+Work_Project\studentreport-devop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA34889D-6267-4A5D-89AF-5721CED92E7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bahasa Inggris-TS_1-19-20" sheetId="1" r:id="rId1"/>
@@ -20,13 +21,28 @@
     <sheet name="Matematika-S_1-19-20" sheetId="6" r:id="rId6"/>
     <sheet name="Matematika-TS_1-20-21" sheetId="7" r:id="rId7"/>
     <sheet name="Matematika-S_1-20-21" sheetId="8" r:id="rId8"/>
+    <sheet name="IPS-TS_1-19-20" sheetId="9" r:id="rId9"/>
+    <sheet name="IPS-S_1-19-20" sheetId="10" r:id="rId10"/>
+    <sheet name="IPS-TS_1-20-21" sheetId="11" r:id="rId11"/>
+    <sheet name="IPS-S_1-20-21" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="20">
   <si>
     <t>First Name</t>
   </si>
@@ -81,11 +97,17 @@
   <si>
     <t>Tugas Pertemuan Satu Matematika</t>
   </si>
+  <si>
+    <t>Quis IPS Pertemuan 1</t>
+  </si>
+  <si>
+    <t>Tugas Pertemuan Satu IPS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -919,7 +941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1081,8 +1103,443 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22565355-FE7F-4802-901B-DB6B6EC24F94}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>78</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>87</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>69</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>77</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>90</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CAE534-6E17-4B8E-A691-9E2E6DE146D0}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>85</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>93</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>89</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>87</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>90</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB35ADD0-CFCA-42B3-AEE7-875B8235CAE4}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>78</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>87</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>69</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>77</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>90</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1229,7 +1686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1376,7 +1833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1523,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1670,7 +2127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1817,7 +2274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1964,11 +2421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,4 +2565,151 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD15BE8F-9805-49D4-9028-C3428C4EF36C}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>85</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>93</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>89</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>87</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>90</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SD Kelas 6A - Bahasa Inggris grades - 04-21-2021, 02-40 PM.xlsx
+++ b/SD Kelas 6A - Bahasa Inggris grades - 04-21-2021, 02-40 PM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\+Work_Project\studentreport-devop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp74\htdocs\studentreport-devop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA34889D-6267-4A5D-89AF-5721CED92E7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC036BD-FBFF-4B18-9C13-626EFBA514A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bahasa Inggris-TS_1-19-20" sheetId="1" r:id="rId1"/>
@@ -942,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +961,7 @@
     <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1012,12 +1012,8 @@
       <c r="H2">
         <v>100</v>
       </c>
-      <c r="K2">
-        <f>(D2+G2)/2</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1039,12 +1035,8 @@
       <c r="H3">
         <v>100</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K5" si="0">(D3+G3)/2</f>
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1066,12 +1058,8 @@
       <c r="H4">
         <v>100</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1092,10 +1080,6 @@
       </c>
       <c r="H5">
         <v>100</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1383,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1527,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,7 +2409,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="A1:XFD1048576"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,7 +2556,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
